--- a/DFW/DFW_A_edges.xlsx
+++ b/DFW/DFW_A_edges.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pwendel\Documents\GitHub\DSGit\DFW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pwend\Documents\GitHub\DSGit\DFW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD235FE2-CFDE-4804-ABD0-04E5B0C187AF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB05686-3222-4D60-9DCF-5B2CD4EB1249}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7212" xr2:uid="{D04BDEF9-CDBF-4882-9CED-09C2FC6D43EC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17260" windowHeight="7210" xr2:uid="{D04BDEF9-CDBF-4882-9CED-09C2FC6D43EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="114">
   <si>
     <t>Node Type</t>
   </si>
@@ -57,96 +57,6 @@
     <t>Terminal Link</t>
   </si>
   <si>
-    <t>A6</t>
-  </si>
-  <si>
-    <t>A7</t>
-  </si>
-  <si>
-    <t>A8</t>
-  </si>
-  <si>
-    <t>A9</t>
-  </si>
-  <si>
-    <t>A10</t>
-  </si>
-  <si>
-    <t>A11</t>
-  </si>
-  <si>
-    <t>A13</t>
-  </si>
-  <si>
-    <t>A14</t>
-  </si>
-  <si>
-    <t>A15</t>
-  </si>
-  <si>
-    <t>A16</t>
-  </si>
-  <si>
-    <t>A17</t>
-  </si>
-  <si>
-    <t>A18</t>
-  </si>
-  <si>
-    <t>A19</t>
-  </si>
-  <si>
-    <t>A20</t>
-  </si>
-  <si>
-    <t>A21</t>
-  </si>
-  <si>
-    <t>A22</t>
-  </si>
-  <si>
-    <t>A23</t>
-  </si>
-  <si>
-    <t>A24</t>
-  </si>
-  <si>
-    <t>A25</t>
-  </si>
-  <si>
-    <t>A26</t>
-  </si>
-  <si>
-    <t>A27</t>
-  </si>
-  <si>
-    <t>A28</t>
-  </si>
-  <si>
-    <t>A29</t>
-  </si>
-  <si>
-    <t>A33</t>
-  </si>
-  <si>
-    <t>A34</t>
-  </si>
-  <si>
-    <t>A35</t>
-  </si>
-  <si>
-    <t>A36</t>
-  </si>
-  <si>
-    <t>A37</t>
-  </si>
-  <si>
-    <t>A38</t>
-  </si>
-  <si>
-    <t>A39</t>
-  </si>
-  <si>
     <t>Gate</t>
   </si>
   <si>
@@ -451,6 +361,12 @@
   </si>
   <si>
     <t>4,4</t>
+  </si>
+  <si>
+    <t>Terminal</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -805,81 +721,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB9D99A4-D659-4C05-951A-9A320248AD69}">
-  <dimension ref="A1:M58"/>
+  <dimension ref="A1:O58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C42" workbookViewId="0">
-      <selection activeCell="J51" sqref="J51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F1" s="1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>7</v>
       </c>
-      <c r="L2" t="s">
-        <v>118</v>
-      </c>
-      <c r="M2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>-6.4</v>
       </c>
@@ -887,23 +809,30 @@
         <v>-3.1</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>40</v>
+        <v>113</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
       </c>
       <c r="E3" t="str">
         <f>_xlfn.CONCAT(C3,D3)</f>
+        <v>A6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="str">
+        <f>_xlfn.CONCAT(E3,F3)</f>
         <v>A6Gate</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3">
+      <c r="H3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>-6.3</v>
       </c>
@@ -911,23 +840,30 @@
         <v>-2.5</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>40</v>
+        <v>113</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" ref="E4:E58" si="0">_xlfn.CONCAT(C4,D4)</f>
+        <v>A7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" ref="G4:G58" si="1">_xlfn.CONCAT(E4,F4)</f>
         <v>A7Gate</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>-6.2</v>
       </c>
@@ -935,23 +871,30 @@
         <v>-2.1</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>40</v>
+        <v>113</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
+        <v>A8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="1"/>
         <v>A8Gate</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>-6.1</v>
       </c>
@@ -959,23 +902,30 @@
         <v>-1.6</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>40</v>
+        <v>113</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
+        <v>A9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="1"/>
         <v>A9Gate</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>-6</v>
       </c>
@@ -983,23 +933,30 @@
         <v>-1.2</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>40</v>
+        <v>113</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
+        <v>A10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
         <v>A10Gate</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>-5.9</v>
       </c>
@@ -1007,23 +964,30 @@
         <v>-0.8</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>40</v>
+        <v>113</v>
+      </c>
+      <c r="D8">
+        <v>11</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
+        <v>A11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
         <v>A11Gate</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>-5.0999999999999996</v>
       </c>
@@ -1031,23 +995,30 @@
         <v>0.7</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>40</v>
+        <v>113</v>
+      </c>
+      <c r="D9">
+        <v>13</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
+        <v>A13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
         <v>A13Gate</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>-4.9000000000000004</v>
       </c>
@@ -1055,23 +1026,30 @@
         <v>1.3</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>40</v>
+        <v>113</v>
+      </c>
+      <c r="D10">
+        <v>14</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
+        <v>A14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
         <v>A14Gate</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>-4.5</v>
       </c>
@@ -1079,23 +1057,30 @@
         <v>1.6</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" t="s">
-        <v>40</v>
+        <v>113</v>
+      </c>
+      <c r="D11">
+        <v>15</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
+        <v>A15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
         <v>A15Gate</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="H11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
         <v>58</v>
       </c>
-      <c r="G11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>-3.8</v>
       </c>
@@ -1103,23 +1088,30 @@
         <v>2.1</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" t="s">
-        <v>40</v>
+        <v>113</v>
+      </c>
+      <c r="D12">
+        <v>16</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
+        <v>A16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
         <v>A16Gate</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>-3</v>
       </c>
@@ -1127,23 +1119,30 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" t="s">
-        <v>40</v>
+        <v>113</v>
+      </c>
+      <c r="D13">
+        <v>17</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
+        <v>A17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
         <v>A17Gate</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>-2.5</v>
       </c>
@@ -1151,23 +1150,30 @@
         <v>2.4</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" t="s">
-        <v>40</v>
+        <v>113</v>
+      </c>
+      <c r="D14">
+        <v>18</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
+        <v>A18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
         <v>A18Gate</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>-1.9</v>
       </c>
@@ -1175,23 +1181,30 @@
         <v>2.8</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" t="s">
-        <v>40</v>
+        <v>113</v>
+      </c>
+      <c r="D15">
+        <v>19</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
+        <v>A19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
         <v>A19Gate</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>-1.1000000000000001</v>
       </c>
@@ -1199,23 +1212,30 @@
         <v>2.9</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" t="s">
-        <v>40</v>
+        <v>113</v>
+      </c>
+      <c r="D16">
+        <v>20</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
+        <v>A20</v>
+      </c>
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
         <v>A20Gate</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>-0.5</v>
       </c>
@@ -1223,23 +1243,30 @@
         <v>2.95</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>40</v>
+        <v>113</v>
+      </c>
+      <c r="D17">
+        <v>21</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
+        <v>A21</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
         <v>A21Gate</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>0.1</v>
       </c>
@@ -1247,23 +1274,30 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>40</v>
+        <v>113</v>
+      </c>
+      <c r="D18">
+        <v>22</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
+        <v>A22</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
         <v>A22Gate</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>0.8</v>
       </c>
@@ -1271,23 +1305,30 @@
         <v>2.8</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>40</v>
+        <v>113</v>
+      </c>
+      <c r="D19">
+        <v>23</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
+        <v>A23</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
         <v>A23Gate</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1.6</v>
       </c>
@@ -1295,23 +1336,30 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>40</v>
+        <v>113</v>
+      </c>
+      <c r="D20">
+        <v>24</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
+        <v>A24</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="1"/>
         <v>A24Gate</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G20" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2.2999999999999998</v>
       </c>
@@ -1319,23 +1367,30 @@
         <v>2.5</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" t="s">
-        <v>40</v>
+        <v>113</v>
+      </c>
+      <c r="D21">
+        <v>25</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
+        <v>A25</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="1"/>
         <v>A25Gate</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1343,23 +1398,30 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" t="s">
-        <v>40</v>
+        <v>113</v>
+      </c>
+      <c r="D22">
+        <v>26</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
+        <v>A26</v>
+      </c>
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="1"/>
         <v>A26Gate</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G22" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>3.2</v>
       </c>
@@ -1367,23 +1429,30 @@
         <v>1.6</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23">
+        <v>27</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>A27</v>
+      </c>
+      <c r="F23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="1"/>
+        <v>A27Gate</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E23" t="str">
-        <f t="shared" si="0"/>
-        <v>A27Gate</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G23" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>4.4000000000000004</v>
       </c>
@@ -1391,23 +1460,30 @@
         <v>1.4</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" t="s">
-        <v>40</v>
+        <v>113</v>
+      </c>
+      <c r="D24">
+        <v>28</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="0"/>
+        <v>A28</v>
+      </c>
+      <c r="F24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="1"/>
         <v>A28Gate</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G24" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>5.0999999999999996</v>
       </c>
@@ -1415,23 +1491,30 @@
         <v>0.6</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" t="s">
-        <v>40</v>
+        <v>113</v>
+      </c>
+      <c r="D25">
+        <v>29</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
+        <v>A29</v>
+      </c>
+      <c r="F25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="1"/>
         <v>A29Gate</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G25" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>5.6</v>
       </c>
@@ -1439,23 +1522,30 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26">
         <v>33</v>
       </c>
-      <c r="D26" t="s">
-        <v>40</v>
-      </c>
       <c r="E26" t="str">
         <f t="shared" si="0"/>
+        <v>A33</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="1"/>
         <v>A33Gate</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="H26" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>6</v>
       </c>
@@ -1463,23 +1553,30 @@
         <v>-0.6</v>
       </c>
       <c r="C27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27">
         <v>34</v>
       </c>
-      <c r="D27" t="s">
-        <v>40</v>
-      </c>
       <c r="E27" t="str">
         <f t="shared" si="0"/>
+        <v>A34</v>
+      </c>
+      <c r="F27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="1"/>
         <v>A34Gate</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G27" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>5.8</v>
       </c>
@@ -1487,23 +1584,30 @@
         <v>-1.6</v>
       </c>
       <c r="C28" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28">
         <v>35</v>
       </c>
-      <c r="D28" t="s">
-        <v>40</v>
-      </c>
       <c r="E28" t="str">
         <f t="shared" si="0"/>
+        <v>A35</v>
+      </c>
+      <c r="F28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="1"/>
         <v>A35Gate</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G28" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>6</v>
       </c>
@@ -1511,23 +1615,30 @@
         <v>-1.7</v>
       </c>
       <c r="C29" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29">
         <v>36</v>
       </c>
-      <c r="D29" t="s">
-        <v>40</v>
-      </c>
       <c r="E29" t="str">
         <f t="shared" si="0"/>
+        <v>A36</v>
+      </c>
+      <c r="F29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="1"/>
         <v>A36Gate</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G29" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>6.1</v>
       </c>
@@ -1535,23 +1646,30 @@
         <v>-2.1</v>
       </c>
       <c r="C30" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30">
         <v>37</v>
       </c>
-      <c r="D30" t="s">
-        <v>40</v>
-      </c>
       <c r="E30" t="str">
         <f t="shared" si="0"/>
+        <v>A37</v>
+      </c>
+      <c r="F30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="1"/>
         <v>A37Gate</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G30" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>6.2</v>
       </c>
@@ -1559,23 +1677,30 @@
         <v>-2.6</v>
       </c>
       <c r="C31" t="s">
+        <v>113</v>
+      </c>
+      <c r="D31">
         <v>38</v>
       </c>
-      <c r="D31" t="s">
-        <v>40</v>
-      </c>
       <c r="E31" t="str">
         <f t="shared" si="0"/>
+        <v>A38</v>
+      </c>
+      <c r="F31" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="1"/>
         <v>A38Gate</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G31" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>6.2</v>
       </c>
@@ -1583,23 +1708,30 @@
         <v>-3.1</v>
       </c>
       <c r="C32" t="s">
+        <v>113</v>
+      </c>
+      <c r="D32">
         <v>39</v>
       </c>
-      <c r="D32" t="s">
-        <v>40</v>
-      </c>
       <c r="E32" t="str">
         <f t="shared" si="0"/>
+        <v>A39</v>
+      </c>
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="1"/>
         <v>A39Gate</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G32">
+      <c r="H32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I32">
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>-5.2</v>
       </c>
@@ -1607,23 +1739,30 @@
         <v>-2</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" t="s">
-        <v>41</v>
+        <v>113</v>
+      </c>
+      <c r="D33">
+        <v>8</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="0"/>
+        <v>A8</v>
+      </c>
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="1"/>
         <v>A8Restroom</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G33">
+      <c r="H33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I33">
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>-2</v>
       </c>
@@ -1631,23 +1770,30 @@
         <v>0.5</v>
       </c>
       <c r="C34" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" t="s">
-        <v>41</v>
+        <v>113</v>
+      </c>
+      <c r="D34">
+        <v>17</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="0"/>
+        <v>A17</v>
+      </c>
+      <c r="F34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="1"/>
         <v>A17Restroom</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G34">
+      <c r="H34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I34">
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>1</v>
       </c>
@@ -1655,23 +1801,30 @@
         <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>41</v>
+        <v>113</v>
+      </c>
+      <c r="D35">
+        <v>24</v>
       </c>
       <c r="E35" t="str">
-        <f>_xlfn.CONCAT(C35,D35)</f>
+        <f t="shared" si="0"/>
+        <v>A24</v>
+      </c>
+      <c r="F35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" t="str">
+        <f>_xlfn.CONCAT(E35,F35)</f>
         <v>A24Restroom</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G35">
+      <c r="H35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I35">
         <v>0.5</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>3.2</v>
       </c>
@@ -1679,23 +1832,30 @@
         <v>-0.1</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
-      </c>
-      <c r="D36" t="s">
-        <v>41</v>
+        <v>113</v>
+      </c>
+      <c r="D36">
+        <v>28</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="0"/>
+        <v>A28</v>
+      </c>
+      <c r="F36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="1"/>
         <v>A28Restroom</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G36">
+      <c r="H36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I36">
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>4.2</v>
       </c>
@@ -1703,23 +1863,30 @@
         <v>-0.1</v>
       </c>
       <c r="C37" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" t="s">
-        <v>41</v>
+        <v>113</v>
+      </c>
+      <c r="D37">
+        <v>29</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="0"/>
+        <v>A29</v>
+      </c>
+      <c r="F37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="1"/>
         <v>A29Restroom</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G37">
+      <c r="H37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I37">
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>5.0999999999999996</v>
       </c>
@@ -1727,23 +1894,30 @@
         <v>-2.7</v>
       </c>
       <c r="C38" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38">
         <v>38</v>
       </c>
-      <c r="D38" t="s">
-        <v>41</v>
-      </c>
       <c r="E38" t="str">
         <f t="shared" si="0"/>
+        <v>A38</v>
+      </c>
+      <c r="F38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="1"/>
         <v>A38Restroom</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G38">
+      <c r="H38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I38">
         <v>0.5</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>-4.5999999999999996</v>
       </c>
@@ -1751,23 +1925,30 @@
         <v>-1</v>
       </c>
       <c r="C39" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" t="s">
-        <v>44</v>
+        <v>113</v>
+      </c>
+      <c r="D39">
+        <v>11</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" si="0"/>
+        <v>A11</v>
+      </c>
+      <c r="F39" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="1"/>
         <v>A11Checkpoint</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G39" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H39" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>-0.4</v>
       </c>
@@ -1775,23 +1956,30 @@
         <v>1.7</v>
       </c>
       <c r="C40" t="s">
-        <v>24</v>
-      </c>
-      <c r="D40" t="s">
-        <v>44</v>
+        <v>113</v>
+      </c>
+      <c r="D40">
+        <v>21</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="0"/>
+        <v>A21</v>
+      </c>
+      <c r="F40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="1"/>
         <v>A21Checkpoint</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G40" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>4.7</v>
       </c>
@@ -1799,23 +1987,30 @@
         <v>-2.1</v>
       </c>
       <c r="C41" t="s">
+        <v>113</v>
+      </c>
+      <c r="D41">
         <v>36</v>
       </c>
-      <c r="D41" t="s">
-        <v>44</v>
-      </c>
       <c r="E41" t="str">
         <f t="shared" si="0"/>
+        <v>A36</v>
+      </c>
+      <c r="F41" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="1"/>
         <v>A36Checkpoint</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G41" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H41" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>-4.2</v>
       </c>
@@ -1823,23 +2018,30 @@
         <v>-1.6</v>
       </c>
       <c r="C42" t="s">
+        <v>113</v>
+      </c>
+      <c r="D42">
+        <v>11</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v>A11</v>
+      </c>
+      <c r="F42" t="s">
         <v>15</v>
       </c>
-      <c r="D42" t="s">
-        <v>45</v>
-      </c>
-      <c r="E42" t="str">
-        <f t="shared" si="0"/>
+      <c r="G42" t="str">
+        <f t="shared" si="1"/>
         <v>A11Ticketing</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G42" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H42" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>-1.4</v>
       </c>
@@ -1847,23 +2049,30 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D43" t="s">
-        <v>45</v>
+        <v>113</v>
+      </c>
+      <c r="D43">
+        <v>19</v>
       </c>
       <c r="E43" t="str">
         <f t="shared" si="0"/>
+        <v>A19</v>
+      </c>
+      <c r="F43" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="1"/>
         <v>A19Ticketing</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G43" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H43" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>4</v>
       </c>
@@ -1871,23 +2080,30 @@
         <v>-1.6</v>
       </c>
       <c r="C44" t="s">
+        <v>113</v>
+      </c>
+      <c r="D44">
         <v>35</v>
       </c>
-      <c r="D44" t="s">
-        <v>45</v>
-      </c>
       <c r="E44" t="str">
         <f t="shared" si="0"/>
+        <v>A35</v>
+      </c>
+      <c r="F44" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="1"/>
         <v>A35Ticketing</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G44" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H44" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>-3.1</v>
       </c>
@@ -1895,23 +2111,30 @@
         <v>0.4</v>
       </c>
       <c r="C45" t="s">
-        <v>18</v>
-      </c>
-      <c r="D45" t="s">
-        <v>46</v>
+        <v>113</v>
+      </c>
+      <c r="D45">
+        <v>15</v>
       </c>
       <c r="E45" t="str">
         <f t="shared" si="0"/>
+        <v>A15</v>
+      </c>
+      <c r="F45" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="1"/>
         <v>A15BagClaim</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G45" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H45" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>-2.5</v>
       </c>
@@ -1919,23 +2142,30 @@
         <v>0.6</v>
       </c>
       <c r="C46" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" t="s">
-        <v>46</v>
+        <v>113</v>
+      </c>
+      <c r="D46">
+        <v>16</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" si="0"/>
+        <v>A16</v>
+      </c>
+      <c r="F46" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="1"/>
         <v>A16BagClaim</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G46" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H46" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I46" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>-2</v>
       </c>
@@ -1943,23 +2173,30 @@
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>20</v>
-      </c>
-      <c r="D47" t="s">
-        <v>46</v>
+        <v>113</v>
+      </c>
+      <c r="D47">
+        <v>17</v>
       </c>
       <c r="E47" t="str">
         <f t="shared" si="0"/>
+        <v>A17</v>
+      </c>
+      <c r="F47" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="1"/>
         <v>A17BagClaim</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G47" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H47" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I47" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>2.8</v>
       </c>
@@ -1967,23 +2204,30 @@
         <v>-0.3</v>
       </c>
       <c r="C48" t="s">
-        <v>31</v>
-      </c>
-      <c r="D48" t="s">
-        <v>46</v>
+        <v>113</v>
+      </c>
+      <c r="D48">
+        <v>28</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" si="0"/>
+        <v>A28</v>
+      </c>
+      <c r="F48" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="1"/>
         <v>A28BagClaim</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G48" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H48" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>3.3</v>
       </c>
@@ -1991,23 +2235,30 @@
         <v>-0.6</v>
       </c>
       <c r="C49" t="s">
-        <v>32</v>
-      </c>
-      <c r="D49" t="s">
-        <v>46</v>
+        <v>113</v>
+      </c>
+      <c r="D49">
+        <v>29</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" si="0"/>
+        <v>A29</v>
+      </c>
+      <c r="F49" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="1"/>
         <v>A29BagClaim</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G49" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H49" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>-0.9</v>
       </c>
@@ -2015,29 +2266,36 @@
         <v>0.1</v>
       </c>
       <c r="C50" t="s">
-        <v>22</v>
-      </c>
-      <c r="D50" t="s">
-        <v>47</v>
+        <v>113</v>
+      </c>
+      <c r="D50">
+        <v>19</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" si="0"/>
+        <v>A19</v>
+      </c>
+      <c r="F50" t="s">
+        <v>17</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="1"/>
         <v>A19BusStop</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="H50" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I50" t="s">
+        <v>81</v>
+      </c>
+      <c r="L50" t="s">
         <v>110</v>
       </c>
-      <c r="G50" t="s">
-        <v>111</v>
-      </c>
-      <c r="J50" t="s">
-        <v>140</v>
-      </c>
-      <c r="K50">
+      <c r="M50">
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>2.6</v>
       </c>
@@ -2045,29 +2303,36 @@
         <v>-1.2</v>
       </c>
       <c r="C51" t="s">
-        <v>32</v>
-      </c>
-      <c r="D51" t="s">
-        <v>47</v>
+        <v>113</v>
+      </c>
+      <c r="D51">
+        <v>29</v>
       </c>
       <c r="E51" t="str">
         <f t="shared" si="0"/>
+        <v>A29</v>
+      </c>
+      <c r="F51" t="s">
+        <v>17</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="1"/>
         <v>A29BusStop</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G51" t="s">
-        <v>112</v>
-      </c>
-      <c r="J51" t="s">
-        <v>135</v>
-      </c>
-      <c r="K51">
+      <c r="H51" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I51" t="s">
+        <v>82</v>
+      </c>
+      <c r="L51" t="s">
+        <v>105</v>
+      </c>
+      <c r="M51">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>-2.1</v>
       </c>
@@ -2075,29 +2340,36 @@
         <v>-2.6</v>
       </c>
       <c r="C52" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" t="s">
-        <v>48</v>
+        <v>113</v>
+      </c>
+      <c r="D52">
+        <v>8</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" si="0"/>
+        <v>A8</v>
+      </c>
+      <c r="F52" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="1"/>
         <v>A8Parking</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G52" t="s">
-        <v>114</v>
-      </c>
-      <c r="H52" t="s">
-        <v>131</v>
+      <c r="H52" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="I52" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+      <c r="J52" t="s">
+        <v>101</v>
+      </c>
+      <c r="K52" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>-0.1</v>
       </c>
@@ -2105,29 +2377,36 @@
         <v>-1.1000000000000001</v>
       </c>
       <c r="C53" t="s">
-        <v>24</v>
-      </c>
-      <c r="D53" t="s">
-        <v>48</v>
+        <v>113</v>
+      </c>
+      <c r="D53">
+        <v>21</v>
       </c>
       <c r="E53" t="str">
         <f t="shared" si="0"/>
+        <v>A21</v>
+      </c>
+      <c r="F53" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="1"/>
         <v>A21Parking</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G53" t="s">
-        <v>126</v>
-      </c>
-      <c r="H53" t="s">
-        <v>133</v>
+      <c r="H53" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="I53" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+      <c r="J53" t="s">
+        <v>103</v>
+      </c>
+      <c r="K53" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>1.9</v>
       </c>
@@ -2135,29 +2414,36 @@
         <v>-2.6</v>
       </c>
       <c r="C54" t="s">
+        <v>113</v>
+      </c>
+      <c r="D54">
         <v>37</v>
       </c>
-      <c r="D54" t="s">
-        <v>48</v>
-      </c>
       <c r="E54" t="str">
         <f t="shared" si="0"/>
+        <v>A37</v>
+      </c>
+      <c r="F54" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="1"/>
         <v>A37Parking</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G54" t="s">
-        <v>116</v>
-      </c>
-      <c r="H54" t="s">
-        <v>134</v>
+      <c r="H54" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="I54" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="J54" t="s">
+        <v>104</v>
+      </c>
+      <c r="K54" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>-4.5</v>
       </c>
@@ -2165,29 +2451,36 @@
         <v>-0.4</v>
       </c>
       <c r="C55" t="s">
-        <v>16</v>
-      </c>
-      <c r="D55" t="s">
-        <v>121</v>
+        <v>113</v>
+      </c>
+      <c r="D55">
+        <v>13</v>
       </c>
       <c r="E55" t="str">
         <f t="shared" si="0"/>
+        <v>A13</v>
+      </c>
+      <c r="F55" t="s">
+        <v>91</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="1"/>
         <v>A13SkyLink</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G55">
+      <c r="H55" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I55">
         <v>1</v>
       </c>
-      <c r="L55" t="s">
-        <v>136</v>
-      </c>
-      <c r="M55" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N55" t="s">
+        <v>106</v>
+      </c>
+      <c r="O55" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>-3.4</v>
       </c>
@@ -2195,29 +2488,36 @@
         <v>1.6</v>
       </c>
       <c r="C56" t="s">
-        <v>19</v>
-      </c>
-      <c r="D56" t="s">
-        <v>121</v>
+        <v>113</v>
+      </c>
+      <c r="D56">
+        <v>16</v>
       </c>
       <c r="E56" t="str">
         <f t="shared" si="0"/>
+        <v>A16</v>
+      </c>
+      <c r="F56" t="s">
+        <v>91</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="1"/>
         <v>A16SkyLink</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G56">
+      <c r="H56" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I56">
         <v>1</v>
       </c>
-      <c r="L56" t="s">
-        <v>137</v>
-      </c>
-      <c r="M56" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N56" t="s">
+        <v>107</v>
+      </c>
+      <c r="O56" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>4</v>
       </c>
@@ -2225,29 +2525,36 @@
         <v>0.8</v>
       </c>
       <c r="C57" t="s">
-        <v>31</v>
-      </c>
-      <c r="D57" t="s">
-        <v>121</v>
+        <v>113</v>
+      </c>
+      <c r="D57">
+        <v>28</v>
       </c>
       <c r="E57" t="str">
         <f t="shared" si="0"/>
+        <v>A28</v>
+      </c>
+      <c r="F57" t="s">
+        <v>91</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="1"/>
         <v>A28SkyLink</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G57">
+      <c r="H57" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I57">
         <v>1</v>
       </c>
-      <c r="L57" t="s">
-        <v>138</v>
-      </c>
-      <c r="M57" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N57" t="s">
+        <v>108</v>
+      </c>
+      <c r="O57" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>5</v>
       </c>
@@ -2255,26 +2562,33 @@
         <v>-0.4</v>
       </c>
       <c r="C58" t="s">
+        <v>113</v>
+      </c>
+      <c r="D58">
         <v>33</v>
       </c>
-      <c r="D58" t="s">
-        <v>121</v>
-      </c>
       <c r="E58" t="str">
         <f t="shared" si="0"/>
+        <v>A33</v>
+      </c>
+      <c r="F58" t="s">
+        <v>91</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="1"/>
         <v>A33SkyLink</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G58">
+      <c r="H58" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I58">
         <v>1</v>
       </c>
-      <c r="L58" t="s">
-        <v>139</v>
-      </c>
-      <c r="M58" t="s">
-        <v>141</v>
+      <c r="N58" t="s">
+        <v>109</v>
+      </c>
+      <c r="O58" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
